--- a/test/functional/xlsx_files/defined_name02.xlsx
+++ b/test/functional/xlsx_files/defined_name02.xlsx
@@ -12,7 +12,7 @@
   <definedNames>
     <definedName name="Sales">'sheet One'!$G$1:$H$10</definedName>
   </definedNames>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
